--- a/docs/stats/largeset.xlsx
+++ b/docs/stats/largeset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12696" windowHeight="4728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train&amp;Test" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:E14"/>
 </workbook>
 </file>
 
@@ -518,10 +519,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -565,7 +566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,31 +854,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="23.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -921,7 +922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -965,7 +966,7 @@
         <v>19.11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>21.15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>18.73</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>15.16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>15.61</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>12.59</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -5093,31 +5094,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="23.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>19.34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>19.489999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>

--- a/docs/stats/largeset.xlsx
+++ b/docs/stats/largeset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train&amp;Test" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>LeBron James</t>
   </si>
@@ -382,6 +382,22 @@
   </si>
   <si>
     <t>David West</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-15 Attendance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-15 Tacit Agreement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-15 Attendance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-15 Tacit Agreement</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +457,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -499,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -516,6 +538,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -851,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,12 +895,12 @@
     <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="15" max="15" width="23.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -917,11 +940,17 @@
       <c r="M1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -962,10 +991,16 @@
         <v>26.97</v>
       </c>
       <c r="N2">
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="O2">
+        <v>1.4374999999999998</v>
+      </c>
+      <c r="P2">
         <v>19.11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1006,10 +1041,16 @@
         <v>29.9</v>
       </c>
       <c r="N3">
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="O3">
+        <v>1.5185185185185184</v>
+      </c>
+      <c r="P3">
         <v>27.73</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1050,10 +1091,16 @@
         <v>24.74</v>
       </c>
       <c r="N4">
+        <v>0.77027027027027029</v>
+      </c>
+      <c r="O4">
+        <v>2.0232558139534884</v>
+      </c>
+      <c r="P4">
         <v>29.62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1094,10 +1141,16 @@
         <v>11.87</v>
       </c>
       <c r="N5">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="O5">
+        <v>2.5855855855855858</v>
+      </c>
+      <c r="P5">
         <v>15.83</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1138,10 +1191,16 @@
         <v>19.34</v>
       </c>
       <c r="N6">
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="O6">
+        <v>1.35</v>
+      </c>
+      <c r="P6">
         <v>22.89</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1182,10 +1241,16 @@
         <v>18.89</v>
       </c>
       <c r="N7">
+        <v>0.68918918918918914</v>
+      </c>
+      <c r="O7">
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="P7">
         <v>19.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1226,10 +1291,16 @@
         <v>18.37</v>
       </c>
       <c r="N8">
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="O8">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="P8">
         <v>19.77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1270,10 +1341,16 @@
         <v>21.4</v>
       </c>
       <c r="N9">
+        <v>0.90540540540540537</v>
+      </c>
+      <c r="O9">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="P9">
         <v>21.94</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1314,10 +1391,16 @@
         <v>23.98</v>
       </c>
       <c r="N10">
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="O10">
+        <v>2.2608695652173916</v>
+      </c>
+      <c r="P10">
         <v>22.64</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1358,10 +1441,16 @@
         <v>24.5</v>
       </c>
       <c r="N11">
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="O11">
+        <v>1.4090909090909089</v>
+      </c>
+      <c r="P11">
         <v>21.74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1402,10 +1491,16 @@
         <v>20.059999999999999</v>
       </c>
       <c r="N12">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="O12">
+        <v>1.8695652173913044</v>
+      </c>
+      <c r="P12">
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1446,10 +1541,16 @@
         <v>21.84</v>
       </c>
       <c r="N13">
+        <v>0.85135135135135132</v>
+      </c>
+      <c r="O13">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="P13">
         <v>22.77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1490,10 +1591,16 @@
         <v>16.37</v>
       </c>
       <c r="N14">
+        <v>0.44594594594594594</v>
+      </c>
+      <c r="O14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14">
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1534,10 +1641,16 @@
         <v>17.690000000000001</v>
       </c>
       <c r="N15">
+        <v>0.77027027027027029</v>
+      </c>
+      <c r="O15">
+        <v>2.7391304347826089</v>
+      </c>
+      <c r="P15">
         <v>15.25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1578,10 +1691,16 @@
         <v>22.08</v>
       </c>
       <c r="N16">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="O16">
+        <v>2.5384615384615383</v>
+      </c>
+      <c r="P16">
         <v>20.92</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1622,10 +1741,16 @@
         <v>17.55</v>
       </c>
       <c r="N17">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="O17">
+        <v>1.736842105263158</v>
+      </c>
+      <c r="P17">
         <v>16.16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1666,10 +1791,16 @@
         <v>11.56</v>
       </c>
       <c r="N18">
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="O18">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P18">
         <v>4.3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1710,10 +1841,16 @@
         <v>12.91</v>
       </c>
       <c r="N19">
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="O19">
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="P19">
         <v>13.01</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1754,10 +1891,16 @@
         <v>18.16</v>
       </c>
       <c r="N20">
+        <v>0.78048780487804881</v>
+      </c>
+      <c r="O20">
+        <v>0.90756302521008403</v>
+      </c>
+      <c r="P20">
         <v>21.15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1798,10 +1941,16 @@
         <v>19.02</v>
       </c>
       <c r="N21">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="O21">
+        <v>3.9239130434782612</v>
+      </c>
+      <c r="P21">
         <v>19.09</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1842,10 +1991,16 @@
         <v>13.9</v>
       </c>
       <c r="N22">
+        <v>0.86585365853658536</v>
+      </c>
+      <c r="O22">
+        <v>2.7310344827586208</v>
+      </c>
+      <c r="P22">
         <v>13.93</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1886,10 +2041,16 @@
         <v>18.28</v>
       </c>
       <c r="N23">
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="O23">
+        <v>1.1392405063291138</v>
+      </c>
+      <c r="P23">
         <v>15.76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1930,10 +2091,16 @@
         <v>10.9</v>
       </c>
       <c r="N24">
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="O24">
+        <v>0.71559633027522929</v>
+      </c>
+      <c r="P24">
         <v>8.65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1974,10 +2141,16 @@
         <v>19.21</v>
       </c>
       <c r="N25">
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="O25">
+        <v>1.9062500000000002</v>
+      </c>
+      <c r="P25">
         <v>18.73</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2018,10 +2191,16 @@
         <v>19.66</v>
       </c>
       <c r="N26">
+        <v>0.78048780487804881</v>
+      </c>
+      <c r="O26">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P26">
         <v>16.63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2062,10 +2241,16 @@
         <v>15.44</v>
       </c>
       <c r="N27">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="O27">
+        <v>1.0145985401459854</v>
+      </c>
+      <c r="P27">
         <v>15.14</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2106,10 +2291,16 @@
         <v>10.15</v>
       </c>
       <c r="N28">
+        <v>0.28048780487804881</v>
+      </c>
+      <c r="O28">
+        <v>0.16560509554140129</v>
+      </c>
+      <c r="P28">
         <v>14.47</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2150,10 +2341,16 @@
         <v>13.71</v>
       </c>
       <c r="N29">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="O29">
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="P29">
         <v>12.71</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2194,10 +2391,16 @@
         <v>14.66</v>
       </c>
       <c r="N30">
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="O30">
+        <v>2.9101123595505616</v>
+      </c>
+      <c r="P30">
         <v>15.16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2238,10 +2441,16 @@
         <v>17.329999999999998</v>
       </c>
       <c r="N31">
+        <v>0.3048780487804878</v>
+      </c>
+      <c r="O31">
+        <v>0.2752808988764045</v>
+      </c>
+      <c r="P31">
         <v>6.84</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2282,10 +2491,16 @@
         <v>13.78</v>
       </c>
       <c r="N32">
+        <v>0.64634146341463417</v>
+      </c>
+      <c r="O32">
+        <v>1.6551724137931036</v>
+      </c>
+      <c r="P32">
         <v>11.08</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2326,10 +2541,16 @@
         <v>18.27</v>
       </c>
       <c r="N33">
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="O33">
+        <v>1.6960784313725492</v>
+      </c>
+      <c r="P33">
         <v>21.75</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2370,10 +2591,16 @@
         <v>17.11</v>
       </c>
       <c r="N34">
+        <v>0.69512195121951215</v>
+      </c>
+      <c r="O34">
+        <v>1.6687116564417177</v>
+      </c>
+      <c r="P34">
         <v>15.61</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2414,10 +2641,16 @@
         <v>14.67</v>
       </c>
       <c r="N35">
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="O35">
+        <v>2.9846153846153842</v>
+      </c>
+      <c r="P35">
         <v>15.29</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2458,10 +2691,16 @@
         <v>12.9</v>
       </c>
       <c r="N36">
+        <v>0.28048780487804881</v>
+      </c>
+      <c r="O36">
+        <v>2.5591397849462365</v>
+      </c>
+      <c r="P36">
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2502,10 +2741,16 @@
         <v>12</v>
       </c>
       <c r="N37">
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="O37">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="P37">
         <v>15.07</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2546,10 +2791,16 @@
         <v>20.2</v>
       </c>
       <c r="N38">
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="O38">
+        <v>2.7978723404255317</v>
+      </c>
+      <c r="P38">
         <v>19.66</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2590,10 +2841,16 @@
         <v>14.53</v>
       </c>
       <c r="N39">
+        <v>0.29268292682926828</v>
+      </c>
+      <c r="O39">
+        <v>1.25</v>
+      </c>
+      <c r="P39">
         <v>16.54</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2634,10 +2891,16 @@
         <v>15.54</v>
       </c>
       <c r="N40">
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="O40">
+        <v>1.9247311827956985</v>
+      </c>
+      <c r="P40">
         <v>14.03</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2678,10 +2941,16 @@
         <v>14</v>
       </c>
       <c r="N41">
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="O41">
+        <v>2.0219780219780219</v>
+      </c>
+      <c r="P41">
         <v>13.87</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2730,10 +2999,18 @@
         <v>14.2</v>
       </c>
       <c r="N42">
+        <f>65/72</f>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="O42">
+        <f>7.6/8.5</f>
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="P42">
         <v>12.56</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2782,10 +3059,18 @@
         <v>23.51</v>
       </c>
       <c r="N43">
+        <f>71/72</f>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="O43">
+        <f>20.9/11.9</f>
+        <v>1.7563025210084031</v>
+      </c>
+      <c r="P43">
         <v>26.79</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2833,11 +3118,19 @@
       <c r="M44">
         <v>15.25</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="10">
+        <f>42/72</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O44">
+        <f>30.9/11.7</f>
+        <v>2.641025641025641</v>
+      </c>
+      <c r="P44">
         <v>11.41</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2886,10 +3179,18 @@
         <v>10.02</v>
       </c>
       <c r="N45">
+        <f>70/72</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="O45">
+        <f>17.4/8.8</f>
+        <v>1.9772727272727268</v>
+      </c>
+      <c r="P45">
         <v>13.76</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2938,10 +3239,18 @@
         <v>10.039999999999999</v>
       </c>
       <c r="N46">
+        <f>25/72</f>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="O46">
+        <f>24.3/11.5</f>
+        <v>2.1130434782608698</v>
+      </c>
+      <c r="P46">
         <v>9.52</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2990,10 +3299,18 @@
         <v>13.82</v>
       </c>
       <c r="N47">
+        <f>17/72</f>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="O47">
+        <f>29/19.3</f>
+        <v>1.5025906735751295</v>
+      </c>
+      <c r="P47">
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3042,10 +3359,18 @@
         <v>16.579999999999998</v>
       </c>
       <c r="N48">
+        <f>48/72</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O48">
+        <f>16.3/12.1</f>
+        <v>1.3471074380165291</v>
+      </c>
+      <c r="P48">
         <v>18.87</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3094,10 +3419,18 @@
         <v>15.01</v>
       </c>
       <c r="N49">
+        <f>72/72</f>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f>10.9/8.5</f>
+        <v>1.2823529411764707</v>
+      </c>
+      <c r="P49">
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3146,10 +3479,18 @@
         <v>10.18</v>
       </c>
       <c r="N50">
+        <f>21/72</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="O50">
+        <f>5.2/18.3</f>
+        <v>0.28415300546448086</v>
+      </c>
+      <c r="P50">
         <v>6.68</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3198,10 +3539,18 @@
         <v>18.440000000000001</v>
       </c>
       <c r="N51">
+        <f>43/72</f>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="O51">
+        <f>11.5/8.5</f>
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="P51">
         <v>11.79</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3250,10 +3599,18 @@
         <v>16.22</v>
       </c>
       <c r="N52">
+        <f>72/72</f>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f>28.4/11.9</f>
+        <v>2.3865546218487395</v>
+      </c>
+      <c r="P52">
         <v>14.62</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3302,10 +3659,18 @@
         <v>13.54</v>
       </c>
       <c r="N53">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O53">
+        <f>8.4/11.1</f>
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="P53">
         <v>15.38</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -3355,10 +3720,18 @@
         <v>7.48</v>
       </c>
       <c r="N54">
+        <f>67/72</f>
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="O54">
+        <f>22.1/11.4</f>
+        <v>1.9385964912280702</v>
+      </c>
+      <c r="P54">
         <v>11.49</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -3407,10 +3780,18 @@
         <v>20.07</v>
       </c>
       <c r="N55">
+        <f>65/72</f>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="O55">
+        <f>24.3/10.6</f>
+        <v>2.2924528301886795</v>
+      </c>
+      <c r="P55">
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3459,10 +3840,18 @@
         <v>19.61</v>
       </c>
       <c r="N56">
+        <f>73/73</f>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f>32.5/12.2</f>
+        <v>2.6639344262295084</v>
+      </c>
+      <c r="P56">
         <v>20.29</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -3511,10 +3900,18 @@
         <v>15.99</v>
       </c>
       <c r="N57">
+        <f>71/72</f>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="O57">
+        <f>13.9/8.2</f>
+        <v>1.6951219512195124</v>
+      </c>
+      <c r="P57">
         <v>20.41</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3563,10 +3960,18 @@
         <v>17.059999999999999</v>
       </c>
       <c r="N58">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O58">
+        <f>8.5/14.2</f>
+        <v>0.59859154929577463</v>
+      </c>
+      <c r="P58">
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3615,10 +4020,18 @@
         <v>12.73</v>
       </c>
       <c r="N59">
+        <f>70/72</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="O59">
+        <f>26.8/10.4</f>
+        <v>2.5769230769230771</v>
+      </c>
+      <c r="P59">
         <v>15.66</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -3667,10 +4080,18 @@
         <v>16.27</v>
       </c>
       <c r="N60">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O60">
+        <f>8.3/13.7</f>
+        <v>0.6058394160583942</v>
+      </c>
+      <c r="P60">
         <v>14.57</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3719,10 +4140,18 @@
         <v>8.91</v>
       </c>
       <c r="N61">
+        <f>66/72</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O61">
+        <f>19.1/9.6</f>
+        <v>1.9895833333333335</v>
+      </c>
+      <c r="P61">
         <v>12.59</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3771,10 +4200,18 @@
         <v>16.21</v>
       </c>
       <c r="N62">
+        <f>45/72</f>
+        <v>0.625</v>
+      </c>
+      <c r="O62">
+        <f>25.3/11.3</f>
+        <v>2.2389380530973448</v>
+      </c>
+      <c r="P62">
         <v>17.63</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3823,10 +4260,18 @@
         <v>15.67</v>
       </c>
       <c r="N63">
+        <f>41/72</f>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="O63">
+        <f>28.1/9.3</f>
+        <v>3.021505376344086</v>
+      </c>
+      <c r="P63">
         <v>19.8</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3875,10 +4320,18 @@
         <v>15.7</v>
       </c>
       <c r="N64">
+        <f>60/72</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O64">
+        <f>13.4/7.8</f>
+        <v>1.7179487179487181</v>
+      </c>
+      <c r="P64">
         <v>16.2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -3927,10 +4380,18 @@
         <v>15.22</v>
       </c>
       <c r="N65">
+        <f>64/72</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="O65">
+        <f>12.1/9.9</f>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="P65">
         <v>15.95</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3979,10 +4440,18 @@
         <v>16.8</v>
       </c>
       <c r="N66">
+        <f>16/72</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O66">
+        <f>10.5/13</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="P66">
         <v>9.36</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,11 +4491,17 @@
       <c r="M67" s="1">
         <v>16.670000000000002</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
+        <v>0.85135135135135098</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67">
         <v>14.39</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -4066,11 +4541,17 @@
       <c r="M68" s="1">
         <v>19</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="1">
+        <v>0.78378378378378399</v>
+      </c>
+      <c r="O68" s="1">
+        <v>2.2272727272727302</v>
+      </c>
+      <c r="P68">
         <v>16.29</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -4110,11 +4591,17 @@
       <c r="M69" s="1">
         <v>22.75</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="1">
+        <v>0.82432432432432401</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="P69">
         <v>19.95</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -4154,11 +4641,17 @@
       <c r="M70" s="1">
         <v>19.829999999999998</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="1">
+        <v>0.93243243243243201</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="P70">
         <v>20.34</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -4198,11 +4691,17 @@
       <c r="M71" s="1">
         <v>16.809999999999999</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="1">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1.5384615384615401</v>
+      </c>
+      <c r="P71">
         <v>15.55</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -4242,11 +4741,17 @@
       <c r="M72" s="1">
         <v>24.13</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="1">
+        <v>0.94594594594594605</v>
+      </c>
+      <c r="O72" s="1">
+        <v>2.54838709677419</v>
+      </c>
+      <c r="P72">
         <v>28.11</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -4286,11 +4791,17 @@
       <c r="M73" s="1">
         <v>19.11</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="1">
+        <v>0.59459459459459496</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73">
         <v>19.89</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -4330,11 +4841,17 @@
       <c r="M74" s="1">
         <v>25.5</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="1">
+        <v>0.82432432432432401</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P74">
         <v>21.7</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -4374,11 +4891,17 @@
       <c r="M75" s="1">
         <v>14.1</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="1">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="P75">
         <v>14.94</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -4418,11 +4941,17 @@
       <c r="M76" s="1">
         <v>18.89</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="1">
+        <v>0.70270270270270296</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="P76">
         <v>16.59</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -4462,11 +4991,17 @@
       <c r="M77" s="1">
         <v>18.559999999999999</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="1">
+        <v>0.71621621621621601</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="P77">
         <v>16.07</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -4506,11 +5041,17 @@
       <c r="M78" s="1">
         <v>16.04</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="1">
+        <v>0.48648648648648701</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1.88405797101449</v>
+      </c>
+      <c r="P78">
         <v>9.82</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -4550,11 +5091,17 @@
       <c r="M79" s="1">
         <v>14.24</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="1">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="P79">
         <v>19.62</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -4594,11 +5141,17 @@
       <c r="M80" s="1">
         <v>14.48</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="1">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1.07692307692308</v>
+      </c>
+      <c r="P80">
         <v>16.79</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -4638,11 +5191,17 @@
       <c r="M81" s="1">
         <v>20.059999999999999</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="1">
+        <v>0.81081081081081097</v>
+      </c>
+      <c r="O81" s="1">
+        <v>2.6111111111111098</v>
+      </c>
+      <c r="P81">
         <v>15.86</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -4682,11 +5241,17 @@
       <c r="M82" s="1">
         <v>16.829999999999998</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="1">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="P82">
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -4726,11 +5291,17 @@
       <c r="M83" s="1">
         <v>14.04</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="1">
+        <v>0.37837837837837801</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="P83">
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -4770,11 +5341,17 @@
       <c r="M84" s="1">
         <v>14.92</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="1">
+        <v>0.68918918918918903</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1.8571428571428601</v>
+      </c>
+      <c r="P84">
         <v>12.42</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -4814,11 +5391,17 @@
       <c r="M85" s="1">
         <v>16.64</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="1">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1.5952380952381</v>
+      </c>
+      <c r="P85">
         <v>15.69</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -4858,11 +5441,17 @@
       <c r="M86" s="1">
         <v>14.04</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="1">
+        <v>0.82432432432432401</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1.8235294117647101</v>
+      </c>
+      <c r="P86">
         <v>16.34</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -4902,11 +5491,17 @@
       <c r="M87" s="1">
         <v>16.48</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="1">
+        <v>0.90540540540540504</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P87">
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -4946,11 +5541,17 @@
       <c r="M88" s="1">
         <v>13.42</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="1">
+        <v>0.95945945945945899</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="P88">
         <v>16.72</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4990,11 +5591,17 @@
       <c r="M89" s="1">
         <v>15.64</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="1">
+        <v>0.85135135135135098</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="P89">
         <v>14.7</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -5034,11 +5641,17 @@
       <c r="M90" s="1">
         <v>18.420000000000002</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="1">
+        <v>0.70270270270270296</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1.61904761904762</v>
+      </c>
+      <c r="P90">
         <v>16.38</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -5078,7 +5691,13 @@
       <c r="M91" s="1">
         <v>18.190000000000001</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="1">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P91">
         <v>20.82</v>
       </c>
     </row>
@@ -5091,10 +5710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5112,12 +5731,14 @@
     <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="20.25" customWidth="1"/>
     <col min="15" max="15" width="23.125" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="23.125" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -5157,11 +5778,17 @@
       <c r="M1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -5202,10 +5829,16 @@
         <v>17.66</v>
       </c>
       <c r="N2">
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="O2">
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="P2">
         <v>17.47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5246,10 +5879,16 @@
         <v>21.36</v>
       </c>
       <c r="N3">
+        <v>0.45945945945945948</v>
+      </c>
+      <c r="O3">
+        <v>0.48275862068965514</v>
+      </c>
+      <c r="P3">
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -5290,10 +5929,16 @@
         <v>22.06</v>
       </c>
       <c r="N4">
+        <v>0.71621621621621623</v>
+      </c>
+      <c r="O4">
+        <v>1.5</v>
+      </c>
+      <c r="P4">
         <v>22.29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5334,10 +5979,16 @@
         <v>10.74</v>
       </c>
       <c r="N5">
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="O5">
+        <v>1.5135135135135134</v>
+      </c>
+      <c r="P5">
         <v>17.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5378,10 +6029,16 @@
         <v>23.68</v>
       </c>
       <c r="N6">
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="O6">
+        <v>1.9</v>
+      </c>
+      <c r="P6">
         <v>19.34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
@@ -5422,10 +6079,16 @@
         <v>13.35</v>
       </c>
       <c r="N7">
+        <v>0.63513513513513509</v>
+      </c>
+      <c r="O7">
+        <v>1.6699029126213591</v>
+      </c>
+      <c r="P7">
         <v>15.34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -5466,10 +6129,16 @@
         <v>29.4</v>
       </c>
       <c r="N8">
+        <v>0.85135135135135132</v>
+      </c>
+      <c r="O8">
+        <v>1.825</v>
+      </c>
+      <c r="P8">
         <v>26.32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -5510,10 +6179,16 @@
         <v>18.399999999999999</v>
       </c>
       <c r="N9">
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="O9">
+        <v>1.3773584905660377</v>
+      </c>
+      <c r="P9">
         <v>19.489999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5554,10 +6229,16 @@
         <v>15.34</v>
       </c>
       <c r="N10">
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="O10">
+        <v>2.4768211920529799</v>
+      </c>
+      <c r="P10">
         <v>12.91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -5598,6 +6279,12 @@
         <v>25.98</v>
       </c>
       <c r="N11">
+        <v>0.98648648648648651</v>
+      </c>
+      <c r="O11">
+        <v>4.208333333333333</v>
+      </c>
+      <c r="P11">
         <v>25.3</v>
       </c>
     </row>
